--- a/Product Backlog Testing.xlsx
+++ b/Product Backlog Testing.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>#</t>
   </si>
@@ -31,16 +31,25 @@
     <t>Inform about unit testing</t>
   </si>
   <si>
+    <t>In progress</t>
+  </si>
+  <si>
+    <t>installing necessary software</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create prototypes for unit testing </t>
+  </si>
+  <si>
+    <t>analize diagrams for each component</t>
+  </si>
+  <si>
+    <t>create unit testing for components</t>
+  </si>
+  <si>
     <t>to do</t>
-  </si>
-  <si>
-    <t>installing necessary software</t>
-  </si>
-  <si>
-    <t>analize diagrams for each component</t>
-  </si>
-  <si>
-    <t>create unit testing for components</t>
   </si>
   <si>
     <t>eventual bug/incompatibility identification</t>
@@ -96,7 +105,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -108,6 +117,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -183,7 +195,7 @@
         <v>1.0</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E3" s="3">
         <v>1.0</v>
@@ -191,16 +203,16 @@
     </row>
     <row r="4">
       <c r="A4" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="B4" s="3" t="s">
+        <v>11.0</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="C4" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>6</v>
       </c>
       <c r="E4" s="3">
         <v>1.0</v>
@@ -208,33 +220,33 @@
     </row>
     <row r="5">
       <c r="A5" s="3">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" s="3">
         <v>2.0</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E5" s="3">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" s="3">
         <v>2.0</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E6" s="3">
         <v>3.0</v>
@@ -242,33 +254,33 @@
     </row>
     <row r="7">
       <c r="A7" s="3">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C7" s="3">
         <v>2.0</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C8" s="3">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E8" s="3">
         <v>2.0</v>
@@ -276,33 +288,33 @@
     </row>
     <row r="9">
       <c r="A9" s="3">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C9" s="3">
         <v>3.0</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E9" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3">
-        <v>9.0</v>
+        <v>3.0</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C10" s="3">
         <v>3.0</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E10" s="3">
         <v>1.0</v>
@@ -310,18 +322,35 @@
     </row>
     <row r="11">
       <c r="A11" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3">
         <v>10.0</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="3">
+      <c r="B12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="3">
         <v>4.0</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="3">
+      <c r="D12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="3">
         <v>1.0</v>
       </c>
     </row>

--- a/Product Backlog Testing.xlsx
+++ b/Product Backlog Testing.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>#</t>
   </si>
@@ -76,13 +76,16 @@
   </si>
   <si>
     <t>deploy</t>
+  </si>
+  <si>
+    <t>Done-ish</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -98,19 +101,64 @@
       <name val="Impact"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -127,23 +175,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Check Cell" xfId="4" builtinId="23"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
@@ -173,199 +253,184 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color rgb="FF000000"/>
-        <name val="Impact"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -384,14 +449,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E12" headerRowDxfId="12" dataDxfId="11" headerRowBorderDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E12" headerRowDxfId="2" dataDxfId="1" headerRowBorderDxfId="0" headerRowCellStyle="Warning Text">
   <autoFilter ref="A1:E12"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="#" totalsRowLabel="Total" dataDxfId="10" totalsRowDxfId="9"/>
-    <tableColumn id="2" name="TO DO " dataDxfId="8" totalsRowDxfId="7"/>
-    <tableColumn id="3" name="PRIORITY" dataDxfId="6" totalsRowDxfId="5"/>
-    <tableColumn id="4" name="STATUS" dataDxfId="4" totalsRowDxfId="3"/>
-    <tableColumn id="5" name="ESTIMATED COST" totalsRowFunction="sum" dataDxfId="2" totalsRowDxfId="1"/>
+    <tableColumn id="1" name="#" totalsRowLabel="Total" dataDxfId="12" totalsRowDxfId="11"/>
+    <tableColumn id="2" name="TO DO " dataDxfId="10" totalsRowDxfId="9"/>
+    <tableColumn id="3" name="PRIORITY" dataDxfId="8" totalsRowDxfId="7"/>
+    <tableColumn id="4" name="STATUS" dataDxfId="6" totalsRowDxfId="5"/>
+    <tableColumn id="5" name="ESTIMATED COST" totalsRowFunction="sum" dataDxfId="4" totalsRowDxfId="3"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -666,7 +731,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E12"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -678,206 +743,206 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
         <v>11</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
         <v>5</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3">
         <v>2</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="6">
         <v>6</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="6">
         <v>2</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>7</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="5">
+        <v>2</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
         <v>8</v>
       </c>
-      <c r="E6" s="1">
+      <c r="B8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="5">
+        <v>2</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>2</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="D9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="5">
         <v>2</v>
       </c>
-      <c r="D7" s="1" t="s">
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>3</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="5">
+        <v>3</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E10" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="D11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="1">
-        <v>3</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="5">
+        <v>4</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="1">
-        <v>3</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="1">
-        <v>3</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="1">
-        <v>4</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="1">
+      <c r="E12" s="5">
         <v>1</v>
       </c>
     </row>
